--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf13-Tnfrsf14.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Tnfsf13-Tnfrsf14.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.7366783333333333</v>
+        <v>0.4678846666666667</v>
       </c>
       <c r="H2">
-        <v>2.210035</v>
+        <v>1.403654</v>
       </c>
       <c r="I2">
-        <v>0.09074305167129323</v>
+        <v>0.03878103110832688</v>
       </c>
       <c r="J2">
-        <v>0.09465722399429256</v>
+        <v>0.03913668944394218</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.461605</v>
+        <v>3.770298333333333</v>
       </c>
       <c r="N2">
-        <v>10.384815</v>
+        <v>11.310895</v>
       </c>
       <c r="O2">
-        <v>0.06616740110392129</v>
+        <v>0.06100259562224731</v>
       </c>
       <c r="P2">
-        <v>0.06733956725325306</v>
+        <v>0.06125631726190612</v>
       </c>
       <c r="Q2">
-        <v>2.550089402058333</v>
+        <v>1.764064778925555</v>
       </c>
       <c r="R2">
-        <v>22.950804618525</v>
+        <v>15.87658301033</v>
       </c>
       <c r="S2">
-        <v>0.006004231897328315</v>
+        <v>0.002365743558515058</v>
       </c>
       <c r="T2">
-        <v>0.006374176501169903</v>
+        <v>0.002397369465158814</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.7366783333333333</v>
+        <v>0.4678846666666667</v>
       </c>
       <c r="H3">
-        <v>2.210035</v>
+        <v>1.403654</v>
       </c>
       <c r="I3">
-        <v>0.09074305167129323</v>
+        <v>0.03878103110832688</v>
       </c>
       <c r="J3">
-        <v>0.09465722399429256</v>
+        <v>0.03913668944394218</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>11.995387</v>
       </c>
       <c r="O3">
-        <v>0.07642924626252497</v>
+        <v>0.06469423882843597</v>
       </c>
       <c r="P3">
-        <v>0.07778320264879995</v>
+        <v>0.06496331472897099</v>
       </c>
       <c r="Q3">
-        <v>2.945580567616112</v>
+        <v>1.870819216010889</v>
       </c>
       <c r="R3">
-        <v>26.510225108545</v>
+        <v>16.837372944098</v>
       </c>
       <c r="S3">
-        <v>0.006935423042798298</v>
+        <v>0.002508909288535104</v>
       </c>
       <c r="T3">
-        <v>0.007362742036120908</v>
+        <v>0.002542449073796812</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.7366783333333333</v>
+        <v>0.4678846666666667</v>
       </c>
       <c r="H4">
-        <v>2.210035</v>
+        <v>1.403654</v>
       </c>
       <c r="I4">
-        <v>0.09074305167129323</v>
+        <v>0.03878103110832688</v>
       </c>
       <c r="J4">
-        <v>0.09465722399429256</v>
+        <v>0.03913668944394218</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>21.74728766666667</v>
+        <v>31.40746233333333</v>
       </c>
       <c r="N4">
-        <v>65.241863</v>
+        <v>94.222387</v>
       </c>
       <c r="O4">
-        <v>0.4156920000874432</v>
+        <v>0.5081658147055464</v>
       </c>
       <c r="P4">
-        <v>0.4230560507063459</v>
+        <v>0.5102793749960634</v>
       </c>
       <c r="Q4">
-        <v>16.02075563280055</v>
+        <v>14.69507004467756</v>
       </c>
       <c r="R4">
-        <v>144.186800695205</v>
+        <v>132.255630402098</v>
       </c>
       <c r="S4">
-        <v>0.03772116064327809</v>
+        <v>0.01970719426828407</v>
       </c>
       <c r="T4">
-        <v>0.04004531135385138</v>
+        <v>0.01997064542886984</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.7366783333333333</v>
+        <v>0.4678846666666667</v>
       </c>
       <c r="H5">
-        <v>2.210035</v>
+        <v>1.403654</v>
       </c>
       <c r="I5">
-        <v>0.09074305167129323</v>
+        <v>0.03878103110832688</v>
       </c>
       <c r="J5">
-        <v>0.09465722399429256</v>
+        <v>0.03913668944394218</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.731955</v>
+        <v>0.7679895</v>
       </c>
       <c r="N5">
-        <v>5.46391</v>
+        <v>1.535979</v>
       </c>
       <c r="O5">
-        <v>0.0522203897564463</v>
+        <v>0.01242590075603175</v>
       </c>
       <c r="P5">
-        <v>0.03543032157151783</v>
+        <v>0.008318388326620067</v>
       </c>
       <c r="Q5">
-        <v>2.012572056141667</v>
+        <v>0.359330511211</v>
       </c>
       <c r="R5">
-        <v>12.07543233685</v>
+        <v>2.155983067266</v>
       </c>
       <c r="S5">
-        <v>0.004738637525964279</v>
+        <v>0.0004818892437686497</v>
       </c>
       <c r="T5">
-        <v>0.003353735885184979</v>
+        <v>0.0003255541806130434</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.7366783333333333</v>
+        <v>0.4678846666666667</v>
       </c>
       <c r="H6">
-        <v>2.210035</v>
+        <v>1.403654</v>
       </c>
       <c r="I6">
-        <v>0.09074305167129323</v>
+        <v>0.03878103110832688</v>
       </c>
       <c r="J6">
-        <v>0.09465722399429256</v>
+        <v>0.03913668944394218</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>20.37655766666667</v>
+        <v>21.861327</v>
       </c>
       <c r="N6">
-        <v>61.129673</v>
+        <v>65.58398100000001</v>
       </c>
       <c r="O6">
-        <v>0.3894909627896643</v>
+        <v>0.3537114500877385</v>
       </c>
       <c r="P6">
-        <v>0.3963908578200832</v>
+        <v>0.3551826046864394</v>
       </c>
       <c r="Q6">
-        <v>15.01096854095056</v>
+        <v>10.228579696286</v>
       </c>
       <c r="R6">
-        <v>135.098716868555</v>
+        <v>92.05721726657401</v>
       </c>
       <c r="S6">
-        <v>0.03534359856192426</v>
+        <v>0.013717294749224</v>
       </c>
       <c r="T6">
-        <v>0.03752125821796539</v>
+        <v>0.01390067129550366</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>0.45002</v>
       </c>
       <c r="I7">
-        <v>0.01847762054135585</v>
+        <v>0.01243343417919891</v>
       </c>
       <c r="J7">
-        <v>0.0192746467553281</v>
+        <v>0.01254746040232341</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.461605</v>
+        <v>3.770298333333333</v>
       </c>
       <c r="N7">
-        <v>10.384815</v>
+        <v>11.310895</v>
       </c>
       <c r="O7">
-        <v>0.06616740110392129</v>
+        <v>0.06100259562224731</v>
       </c>
       <c r="P7">
-        <v>0.06733956725325306</v>
+        <v>0.06125631726190612</v>
       </c>
       <c r="Q7">
-        <v>0.5192638273666667</v>
+        <v>0.5655698853222222</v>
       </c>
       <c r="R7">
-        <v>4.6733744463</v>
+        <v>5.0901289679</v>
       </c>
       <c r="S7">
-        <v>0.001222616129805948</v>
+        <v>0.0007584717574294993</v>
       </c>
       <c r="T7">
-        <v>0.001297946371463112</v>
+        <v>0.0007686112152359268</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>0.45002</v>
       </c>
       <c r="I8">
-        <v>0.01847762054135585</v>
+        <v>0.01243343417919891</v>
       </c>
       <c r="J8">
-        <v>0.0192746467553281</v>
+        <v>0.01254746040232341</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>11.995387</v>
       </c>
       <c r="O8">
-        <v>0.07642924626252497</v>
+        <v>0.06469423882843597</v>
       </c>
       <c r="P8">
-        <v>0.07778320264879995</v>
+        <v>0.06496331472897099</v>
       </c>
       <c r="Q8">
         <v>0.5997960064155555</v>
@@ -948,10 +948,10 @@
         <v>5.39816405774</v>
       </c>
       <c r="S8">
-        <v>0.001412230610700776</v>
+        <v>0.0008043715602467328</v>
       </c>
       <c r="T8">
-        <v>0.00149924375455372</v>
+        <v>0.0008151246191654364</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>0.45002</v>
       </c>
       <c r="I9">
-        <v>0.01847762054135585</v>
+        <v>0.01243343417919891</v>
       </c>
       <c r="J9">
-        <v>0.0192746467553281</v>
+        <v>0.01254746040232341</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>21.74728766666667</v>
+        <v>31.40746233333333</v>
       </c>
       <c r="N9">
-        <v>65.241863</v>
+        <v>94.222387</v>
       </c>
       <c r="O9">
-        <v>0.4156920000874432</v>
+        <v>0.5081658147055464</v>
       </c>
       <c r="P9">
-        <v>0.4230560507063459</v>
+        <v>0.5102793749960634</v>
       </c>
       <c r="Q9">
-        <v>3.262238131917777</v>
+        <v>4.711328733082222</v>
       </c>
       <c r="R9">
-        <v>29.36014318726</v>
+        <v>42.40195859774</v>
       </c>
       <c r="S9">
-        <v>0.00768099903969304</v>
+        <v>0.006318246209260399</v>
       </c>
       <c r="T9">
-        <v>0.00815425593506899</v>
+        <v>0.006402710251885442</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>0.45002</v>
       </c>
       <c r="I10">
-        <v>0.01847762054135585</v>
+        <v>0.01243343417919891</v>
       </c>
       <c r="J10">
-        <v>0.0192746467553281</v>
+        <v>0.01254746040232341</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.731955</v>
+        <v>0.7679895</v>
       </c>
       <c r="N10">
-        <v>5.46391</v>
+        <v>1.535979</v>
       </c>
       <c r="O10">
-        <v>0.0522203897564463</v>
+        <v>0.01242590075603175</v>
       </c>
       <c r="P10">
-        <v>0.03543032157151783</v>
+        <v>0.008318388326620067</v>
       </c>
       <c r="Q10">
-        <v>0.4098114630333333</v>
+        <v>0.11520354493</v>
       </c>
       <c r="R10">
-        <v>2.4588687782</v>
+        <v>0.69122126958</v>
       </c>
       <c r="S10">
-        <v>0.0009649085464413209</v>
+        <v>0.0001544966191673786</v>
       </c>
       <c r="T10">
-        <v>0.0006829069327186874</v>
+        <v>0.0001043746481394146</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>0.45002</v>
       </c>
       <c r="I11">
-        <v>0.01847762054135585</v>
+        <v>0.01243343417919891</v>
       </c>
       <c r="J11">
-        <v>0.0192746467553281</v>
+        <v>0.01254746040232341</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>20.37655766666667</v>
+        <v>21.861327</v>
       </c>
       <c r="N11">
-        <v>61.129673</v>
+        <v>65.58398100000001</v>
       </c>
       <c r="O11">
-        <v>0.3894909627896643</v>
+        <v>0.3537114500877385</v>
       </c>
       <c r="P11">
-        <v>0.3963908578200832</v>
+        <v>0.3551826046864394</v>
       </c>
       <c r="Q11">
-        <v>3.056619493717777</v>
+        <v>3.27934479218</v>
       </c>
       <c r="R11">
-        <v>27.50957544346</v>
+        <v>29.51410312962</v>
       </c>
       <c r="S11">
-        <v>0.00719686621471477</v>
+        <v>0.004397848033094896</v>
       </c>
       <c r="T11">
-        <v>0.007640293761523588</v>
+        <v>0.004456639667897186</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.208283999999999</v>
+        <v>5.973387666666667</v>
       </c>
       <c r="H12">
-        <v>9.624851999999999</v>
+        <v>17.920163</v>
       </c>
       <c r="I12">
-        <v>0.3951921315112882</v>
+        <v>0.4951094776699161</v>
       </c>
       <c r="J12">
-        <v>0.4122386168888342</v>
+        <v>0.4996500947639684</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.461605</v>
+        <v>3.770298333333333</v>
       </c>
       <c r="N12">
-        <v>10.384815</v>
+        <v>11.310895</v>
       </c>
       <c r="O12">
-        <v>0.06616740110392129</v>
+        <v>0.06100259562224731</v>
       </c>
       <c r="P12">
-        <v>0.06733956725325306</v>
+        <v>0.06125631726190612</v>
       </c>
       <c r="Q12">
-        <v>11.10581193582</v>
+        <v>22.52145356398723</v>
       </c>
       <c r="R12">
-        <v>99.95230742237999</v>
+        <v>202.693082075885</v>
       </c>
       <c r="S12">
-        <v>0.02614883627882102</v>
+        <v>0.03020296325503998</v>
       </c>
       <c r="T12">
-        <v>0.02775997006637367</v>
+        <v>0.0306067247248031</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.208283999999999</v>
+        <v>5.973387666666667</v>
       </c>
       <c r="H13">
-        <v>9.624851999999999</v>
+        <v>17.920163</v>
       </c>
       <c r="I13">
-        <v>0.3951921315112882</v>
+        <v>0.4951094776699161</v>
       </c>
       <c r="J13">
-        <v>0.4122386168888342</v>
+        <v>0.4996500947639684</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>11.995387</v>
       </c>
       <c r="O13">
-        <v>0.07642924626252497</v>
+        <v>0.06469423882843597</v>
       </c>
       <c r="P13">
-        <v>0.07778320264879995</v>
+        <v>0.06496331472897099</v>
       </c>
       <c r="Q13">
-        <v>12.828202728636</v>
+        <v>23.88436558756456</v>
       </c>
       <c r="R13">
-        <v>115.453824557724</v>
+        <v>214.959290288081</v>
       </c>
       <c r="S13">
-        <v>0.0302042367402884</v>
+        <v>0.03203073079459974</v>
       </c>
       <c r="T13">
-        <v>0.03206523987712519</v>
+        <v>0.03245892636051186</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.208283999999999</v>
+        <v>5.973387666666667</v>
       </c>
       <c r="H14">
-        <v>9.624851999999999</v>
+        <v>17.920163</v>
       </c>
       <c r="I14">
-        <v>0.3951921315112882</v>
+        <v>0.4951094776699161</v>
       </c>
       <c r="J14">
-        <v>0.4122386168888342</v>
+        <v>0.4996500947639684</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>21.74728766666667</v>
+        <v>31.40746233333333</v>
       </c>
       <c r="N14">
-        <v>65.241863</v>
+        <v>94.222387</v>
       </c>
       <c r="O14">
-        <v>0.4156920000874432</v>
+        <v>0.5081658147055464</v>
       </c>
       <c r="P14">
-        <v>0.4230560507063459</v>
+        <v>0.5102793749960634</v>
       </c>
       <c r="Q14">
-        <v>69.77147506436398</v>
+        <v>187.6089481432312</v>
       </c>
       <c r="R14">
-        <v>627.9432755792759</v>
+        <v>1688.480533289081</v>
       </c>
       <c r="S14">
-        <v>0.1642782075667473</v>
+        <v>0.2515977110885705</v>
       </c>
       <c r="T14">
-        <v>0.1744000412096365</v>
+        <v>0.2549611380728816</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.208283999999999</v>
+        <v>5.973387666666667</v>
       </c>
       <c r="H15">
-        <v>9.624851999999999</v>
+        <v>17.920163</v>
       </c>
       <c r="I15">
-        <v>0.3951921315112882</v>
+        <v>0.4951094776699161</v>
       </c>
       <c r="J15">
-        <v>0.4122386168888342</v>
+        <v>0.4996500947639684</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.731955</v>
+        <v>0.7679895</v>
       </c>
       <c r="N15">
-        <v>5.46391</v>
+        <v>1.535979</v>
       </c>
       <c r="O15">
-        <v>0.0522203897564463</v>
+        <v>0.01242590075603175</v>
       </c>
       <c r="P15">
-        <v>0.03543032157151783</v>
+        <v>0.008318388326620067</v>
       </c>
       <c r="Q15">
-        <v>8.764887515219998</v>
+        <v>4.587499007429501</v>
       </c>
       <c r="R15">
-        <v>52.58932509132</v>
+        <v>27.524994044577</v>
       </c>
       <c r="S15">
-        <v>0.02063708713620025</v>
+        <v>0.006152181232897094</v>
       </c>
       <c r="T15">
-        <v>0.01460574676056914</v>
+        <v>0.004156283515679205</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.208283999999999</v>
+        <v>5.973387666666667</v>
       </c>
       <c r="H16">
-        <v>9.624851999999999</v>
+        <v>17.920163</v>
       </c>
       <c r="I16">
-        <v>0.3951921315112882</v>
+        <v>0.4951094776699161</v>
       </c>
       <c r="J16">
-        <v>0.4122386168888342</v>
+        <v>0.4996500947639684</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.37655766666667</v>
+        <v>21.861327</v>
       </c>
       <c r="N16">
-        <v>61.129673</v>
+        <v>65.58398100000001</v>
       </c>
       <c r="O16">
-        <v>0.3894909627896643</v>
+        <v>0.3537114500877385</v>
       </c>
       <c r="P16">
-        <v>0.3963908578200832</v>
+        <v>0.3551826046864394</v>
       </c>
       <c r="Q16">
-        <v>65.373783937044</v>
+        <v>130.586181078767</v>
       </c>
       <c r="R16">
-        <v>588.3640554333959</v>
+        <v>1175.275629708903</v>
       </c>
       <c r="S16">
-        <v>0.1539237637892313</v>
+        <v>0.1751258912988088</v>
       </c>
       <c r="T16">
-        <v>0.1634076189751296</v>
+        <v>0.1774670220900925</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.0070985</v>
+        <v>0.3289195</v>
       </c>
       <c r="H17">
-        <v>2.014197</v>
+        <v>0.657839</v>
       </c>
       <c r="I17">
-        <v>0.1240530460697436</v>
+        <v>0.02726278134419591</v>
       </c>
       <c r="J17">
-        <v>0.08626935618559531</v>
+        <v>0.01834187103596291</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.461605</v>
+        <v>3.770298333333333</v>
       </c>
       <c r="N17">
-        <v>10.384815</v>
+        <v>11.310895</v>
       </c>
       <c r="O17">
-        <v>0.06616740110392129</v>
+        <v>0.06100259562224731</v>
       </c>
       <c r="P17">
-        <v>0.06733956725325306</v>
+        <v>0.06125631726190612</v>
       </c>
       <c r="Q17">
-        <v>3.4861772030925</v>
+        <v>1.240124642650833</v>
       </c>
       <c r="R17">
-        <v>20.917063218555</v>
+        <v>7.440747855904999</v>
       </c>
       <c r="S17">
-        <v>0.008208267657459951</v>
+        <v>0.001663100425877731</v>
       </c>
       <c r="T17">
-        <v>0.005809341112754738</v>
+        <v>0.001123555471355911</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.0070985</v>
+        <v>0.3289195</v>
       </c>
       <c r="H18">
-        <v>2.014197</v>
+        <v>0.657839</v>
       </c>
       <c r="I18">
-        <v>0.1240530460697436</v>
+        <v>0.02726278134419591</v>
       </c>
       <c r="J18">
-        <v>0.08626935618559531</v>
+        <v>0.01834187103596291</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>11.995387</v>
       </c>
       <c r="O18">
-        <v>0.07642924626252497</v>
+        <v>0.06469423882843597</v>
       </c>
       <c r="P18">
-        <v>0.07778320264879995</v>
+        <v>0.06496331472897099</v>
       </c>
       <c r="Q18">
-        <v>4.026845418206501</v>
+        <v>1.315172231448833</v>
       </c>
       <c r="R18">
-        <v>24.16107250923901</v>
+        <v>7.891033388693</v>
       </c>
       <c r="S18">
-        <v>0.009481280807680787</v>
+        <v>0.001763744887408839</v>
       </c>
       <c r="T18">
-        <v>0.006710306814565663</v>
+        <v>0.001191548740827455</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.0070985</v>
+        <v>0.3289195</v>
       </c>
       <c r="H19">
-        <v>2.014197</v>
+        <v>0.657839</v>
       </c>
       <c r="I19">
-        <v>0.1240530460697436</v>
+        <v>0.02726278134419591</v>
       </c>
       <c r="J19">
-        <v>0.08626935618559531</v>
+        <v>0.01834187103596291</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.74728766666667</v>
+        <v>31.40746233333333</v>
       </c>
       <c r="N19">
-        <v>65.241863</v>
+        <v>94.222387</v>
       </c>
       <c r="O19">
-        <v>0.4156920000874432</v>
+        <v>0.5081658147055464</v>
       </c>
       <c r="P19">
-        <v>0.4230560507063459</v>
+        <v>0.5102793749960634</v>
       </c>
       <c r="Q19">
-        <v>21.9016607881685</v>
+        <v>10.33052680694883</v>
       </c>
       <c r="R19">
-        <v>131.409964729011</v>
+        <v>61.98316084169299</v>
       </c>
       <c r="S19">
-        <v>0.05156785883767145</v>
+        <v>0.01385401349291249</v>
       </c>
       <c r="T19">
-        <v>0.03649677312485703</v>
+        <v>0.009359478488489548</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.0070985</v>
+        <v>0.3289195</v>
       </c>
       <c r="H20">
-        <v>2.014197</v>
+        <v>0.657839</v>
       </c>
       <c r="I20">
-        <v>0.1240530460697436</v>
+        <v>0.02726278134419591</v>
       </c>
       <c r="J20">
-        <v>0.08626935618559531</v>
+        <v>0.01834187103596291</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.731955</v>
+        <v>0.7679895</v>
       </c>
       <c r="N20">
-        <v>5.46391</v>
+        <v>1.535979</v>
       </c>
       <c r="O20">
-        <v>0.0522203897564463</v>
+        <v>0.01242590075603175</v>
       </c>
       <c r="P20">
-        <v>0.03543032157151783</v>
+        <v>0.008318388326620067</v>
       </c>
       <c r="Q20">
-        <v>2.751347782567501</v>
+        <v>0.25260672234525</v>
       </c>
       <c r="R20">
-        <v>11.00539113027</v>
+        <v>1.010426889381</v>
       </c>
       <c r="S20">
-        <v>0.006478098416236399</v>
+        <v>0.0003387646153163722</v>
       </c>
       <c r="T20">
-        <v>0.003056551031423453</v>
+        <v>0.0001525748059139246</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.0070985</v>
+        <v>0.3289195</v>
       </c>
       <c r="H21">
-        <v>2.014197</v>
+        <v>0.657839</v>
       </c>
       <c r="I21">
-        <v>0.1240530460697436</v>
+        <v>0.02726278134419591</v>
       </c>
       <c r="J21">
-        <v>0.08626935618559531</v>
+        <v>0.01834187103596291</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>20.37655766666667</v>
+        <v>21.861327</v>
       </c>
       <c r="N21">
-        <v>61.129673</v>
+        <v>65.58398100000001</v>
       </c>
       <c r="O21">
-        <v>0.3894909627896643</v>
+        <v>0.3537114500877385</v>
       </c>
       <c r="P21">
-        <v>0.3963908578200832</v>
+        <v>0.3551826046864394</v>
       </c>
       <c r="Q21">
-        <v>20.5212006612635</v>
+        <v>7.1906167461765</v>
       </c>
       <c r="R21">
-        <v>123.127203967581</v>
+        <v>43.143700477059</v>
       </c>
       <c r="S21">
-        <v>0.04831754035069501</v>
+        <v>0.009643157922680482</v>
       </c>
       <c r="T21">
-        <v>0.03419638410199442</v>
+        <v>0.006514713529376065</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.016221666666667</v>
+        <v>5.144583</v>
       </c>
       <c r="H22">
-        <v>9.048665</v>
+        <v>15.433749</v>
       </c>
       <c r="I22">
-        <v>0.3715341502063192</v>
+        <v>0.4264132756983622</v>
       </c>
       <c r="J22">
-        <v>0.3875601561759498</v>
+        <v>0.4303238843538031</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.461605</v>
+        <v>3.770298333333333</v>
       </c>
       <c r="N22">
-        <v>10.384815</v>
+        <v>11.310895</v>
       </c>
       <c r="O22">
-        <v>0.06616740110392129</v>
+        <v>0.06100259562224731</v>
       </c>
       <c r="P22">
-        <v>0.06733956725325306</v>
+        <v>0.06125631726190612</v>
       </c>
       <c r="Q22">
-        <v>10.44096800244167</v>
+        <v>19.396612710595</v>
       </c>
       <c r="R22">
-        <v>93.96871202197499</v>
+        <v>174.569514395355</v>
       </c>
       <c r="S22">
-        <v>0.02458344914050606</v>
+        <v>0.02601231662538504</v>
       </c>
       <c r="T22">
-        <v>0.02609813320149163</v>
+        <v>0.02636005638535236</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.016221666666667</v>
+        <v>5.144583</v>
       </c>
       <c r="H23">
-        <v>9.048665</v>
+        <v>15.433749</v>
       </c>
       <c r="I23">
-        <v>0.3715341502063192</v>
+        <v>0.4264132756983622</v>
       </c>
       <c r="J23">
-        <v>0.3875601561759498</v>
+        <v>0.4303238843538031</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>11.995387</v>
       </c>
       <c r="O23">
-        <v>0.07642924626252497</v>
+        <v>0.06469423882843597</v>
       </c>
       <c r="P23">
-        <v>0.07778320264879995</v>
+        <v>0.06496331472897099</v>
       </c>
       <c r="Q23">
-        <v>12.06024872315056</v>
+        <v>20.570421346207</v>
       </c>
       <c r="R23">
-        <v>108.542238508355</v>
+        <v>185.133792115863</v>
       </c>
       <c r="S23">
-        <v>0.02839607506105671</v>
+        <v>0.02758648229764556</v>
       </c>
       <c r="T23">
-        <v>0.03014567016643446</v>
+        <v>0.02795526593466943</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.016221666666667</v>
+        <v>5.144583</v>
       </c>
       <c r="H24">
-        <v>9.048665</v>
+        <v>15.433749</v>
       </c>
       <c r="I24">
-        <v>0.3715341502063192</v>
+        <v>0.4264132756983622</v>
       </c>
       <c r="J24">
-        <v>0.3875601561759498</v>
+        <v>0.4303238843538031</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>21.74728766666667</v>
+        <v>31.40746233333333</v>
       </c>
       <c r="N24">
-        <v>65.241863</v>
+        <v>94.222387</v>
       </c>
       <c r="O24">
-        <v>0.4156920000874432</v>
+        <v>0.5081658147055464</v>
       </c>
       <c r="P24">
-        <v>0.4230560507063459</v>
+        <v>0.5102793749960634</v>
       </c>
       <c r="Q24">
-        <v>65.59464025143276</v>
+        <v>161.578296793207</v>
       </c>
       <c r="R24">
-        <v>590.3517622628949</v>
+        <v>1454.204671138863</v>
       </c>
       <c r="S24">
-        <v>0.1544437740000534</v>
+        <v>0.216688649646519</v>
       </c>
       <c r="T24">
-        <v>0.163959669082932</v>
+        <v>0.2195854027539369</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.016221666666667</v>
+        <v>5.144583</v>
       </c>
       <c r="H25">
-        <v>9.048665</v>
+        <v>15.433749</v>
       </c>
       <c r="I25">
-        <v>0.3715341502063192</v>
+        <v>0.4264132756983622</v>
       </c>
       <c r="J25">
-        <v>0.3875601561759498</v>
+        <v>0.4303238843538031</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.731955</v>
+        <v>0.7679895</v>
       </c>
       <c r="N25">
-        <v>5.46391</v>
+        <v>1.535979</v>
       </c>
       <c r="O25">
-        <v>0.0522203897564463</v>
+        <v>0.01242590075603175</v>
       </c>
       <c r="P25">
-        <v>0.03543032157151783</v>
+        <v>0.008318388326620067</v>
       </c>
       <c r="Q25">
-        <v>8.240181863358334</v>
+        <v>3.9509857258785</v>
       </c>
       <c r="R25">
-        <v>49.44109118015</v>
+        <v>23.705914355271</v>
       </c>
       <c r="S25">
-        <v>0.01940165813160405</v>
+        <v>0.005298569044882252</v>
       </c>
       <c r="T25">
-        <v>0.01373138096162158</v>
+        <v>0.00357960117627448</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.016221666666667</v>
+        <v>5.144583</v>
       </c>
       <c r="H26">
-        <v>9.048665</v>
+        <v>15.433749</v>
       </c>
       <c r="I26">
-        <v>0.3715341502063192</v>
+        <v>0.4264132756983622</v>
       </c>
       <c r="J26">
-        <v>0.3875601561759498</v>
+        <v>0.4303238843538031</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>20.37655766666667</v>
+        <v>21.861327</v>
       </c>
       <c r="N26">
-        <v>61.129673</v>
+        <v>65.58398100000001</v>
       </c>
       <c r="O26">
-        <v>0.3894909627896643</v>
+        <v>0.3537114500877385</v>
       </c>
       <c r="P26">
-        <v>0.3963908578200832</v>
+        <v>0.3551826046864394</v>
       </c>
       <c r="Q26">
-        <v>61.46021472628278</v>
+        <v>112.467411241641</v>
       </c>
       <c r="R26">
-        <v>553.1419325365449</v>
+        <v>1012.206701174769</v>
       </c>
       <c r="S26">
-        <v>0.144709193873099</v>
+        <v>0.1508272580839303</v>
       </c>
       <c r="T26">
-        <v>0.1536253027634702</v>
+        <v>0.1528435581035699</v>
       </c>
     </row>
   </sheetData>
